--- a/CASES/05_Challenge_Data/01_Data/CRITICALITY.xlsx
+++ b/CASES/05_Challenge_Data/01_Data/CRITICALITY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,20 +18,20 @@
     <sheet name="ST" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">BUS!$A$1:$D$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">GEN!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">LN!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">LO!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">ST!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">BUS!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">GEN!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">LN!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">LO!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">ST!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">TR!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" name="_56F9DC9755BA473782653E2940F9FormId" vbProcedure="false">"2MF_VyIJjkWHv-xPRV62AFp6FmJGvDJDlaNXvDlwm8NUQVQ5TFVKRllOUTRMWlBJS0syOUhLSFNOVi4u"</definedName>
     <definedName function="false" hidden="false" name="_56F9DC9755BA473782653E2940F9ResponseSheet" vbProcedure="false">"Form1"</definedName>
     <definedName function="false" hidden="false" name="_56F9DC9755BA473782653E2940F9SourceDocId" vbProcedure="false">"{dcbd5c6e-e310-4cb1-a15e-380c47f2a6be}"</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">LO!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">BUS!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">LN!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">GEN!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">ST!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">LO!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">BUS!$A$1:$D$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">LN!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">GEN!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">ST!$A$1:$D$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -136,7 +136,7 @@
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -199,6 +199,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -306,7 +312,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -369,6 +375,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -687,10 +697,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.79"/>
@@ -746,12 +756,12 @@
         <v>8</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -789,10 +799,10 @@
   <dimension ref="A1:AMJ20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.79"/>
@@ -838,10 +848,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="12" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>100000</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
@@ -875,10 +885,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="12" t="n">
-        <v>10001</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -892,10 +902,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>10002</v>
+        <v>5000</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
@@ -909,13 +919,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="12" t="n">
-        <v>10003</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="12" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,7 +999,7 @@
       <c r="D20" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:E1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1012,7 +1022,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
@@ -1047,11 +1057,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.45"/>
@@ -1099,12 +1109,12 @@
       <c r="D2" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
+      <c r="E2" s="16" t="n">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D2"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1124,10 +1134,10 @@
   <dimension ref="A1:AMJ35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.45"/>
@@ -1167,10 +1177,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="12" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="12" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
@@ -1184,10 +1194,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D3" s="12" t="n">
         <v>10000</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -1201,10 +1211,10 @@
         <v>21</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>5001</v>
-      </c>
-      <c r="D4" s="12" t="n">
-        <v>10001</v>
+        <v>1000</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
@@ -1218,10 +1228,10 @@
         <v>22</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>5002</v>
-      </c>
-      <c r="D5" s="12" t="n">
-        <v>10002</v>
+        <v>5000</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -1232,6 +1242,7 @@
       <c r="B6" s="10"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
@@ -1408,7 +1419,7 @@
       <c r="D35" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1428,10 +1439,10 @@
   <dimension ref="A1:AMJ35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.45"/>
@@ -1505,13 +1516,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="D4" s="12" t="n">
-        <v>10001</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="E4" s="12" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,7 +1712,7 @@
       <c r="D35" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1720,11 +1731,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.45"/>
@@ -1767,7 +1778,7 @@
         <v>5000</v>
       </c>
       <c r="D2" s="12" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
@@ -1972,7 +1983,7 @@
       <c r="D35" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
